--- a/data/DID/control_site_stats.xlsx
+++ b/data/DID/control_site_stats.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwnetid-my.sharepoint.com/personal/dlhogan_uw_edu/Documents/Documents/GitHub/CEWA565_project/data/DID/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_0A5B60010E30921FD2FE31D2F8F2D3C264D813F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52537CA8-B406-467D-BF14-BE580F9161BF}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="5" yWindow="5" windowWidth="9590" windowHeight="5390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -46,8 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +116,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -156,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,9 +202,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,6 +254,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,14 +447,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.6796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -432,15 +490,15 @@
         <v>215.2</v>
       </c>
       <c r="E2">
-        <v>4.662617290749907</v>
+        <v>4.6626172907499068</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>215.7241379310345</v>
+        <v>215.72413793103451</v>
       </c>
       <c r="C3">
         <v>2.723685813950214</v>
@@ -452,24 +510,24 @@
         <v>3.006888642824145</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>278.3333333333333</v>
+        <v>278.33333333333331</v>
       </c>
       <c r="C4">
-        <v>2.562860505032213</v>
+        <v>2.5628605050322131</v>
       </c>
       <c r="D4">
-        <v>266.6</v>
+        <v>266.60000000000002</v>
       </c>
       <c r="E4">
-        <v>3.134295698208694</v>
+        <v>3.1342956982086938</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -483,24 +541,24 @@
         <v>219.6</v>
       </c>
       <c r="E5">
-        <v>2.78556547221565</v>
+        <v>2.7855654722156502</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>214.3939393939394</v>
+        <v>214.39393939393941</v>
       </c>
       <c r="C6">
-        <v>2.021634593074505</v>
+        <v>2.0216345930745052</v>
       </c>
       <c r="D6">
         <v>196.6</v>
       </c>
       <c r="E6">
-        <v>3.702169715999066</v>
+        <v>3.7021697159990659</v>
       </c>
     </row>
   </sheetData>
